--- a/docs/analise/llama_8b/tb_ajustes_tabela_2025_11_19_base_analise_llama_8b.xlsx
+++ b/docs/analise/llama_8b/tb_ajustes_tabela_2025_11_19_base_analise_llama_8b.xlsx
@@ -38,14 +38,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,13 +107,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,10 +243,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C386"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C386" activeCellId="0" sqref="C2:C386"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,6 +299,10 @@
       <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">SUM(C2:C386)</f>
+        <v>149</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -304,6 +314,9 @@
       <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -325,6 +338,10 @@
       </c>
       <c r="C7" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">E4/E5</f>
+        <v>0.387012987012987</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
